--- a/doc/excel/党建/[sample_partyMemberGroup]基层党组织领导班子录入样表.xlsx
+++ b/doc/excel/党建/[sample_partyMemberGroup]基层党组织领导班子录入样表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\廖敏工作文件夹\全部高校\组工一体化平台数据录入样表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\党建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0E4D87-D5F1-422A-B5C9-F92D18697E7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>应换届时间</t>
   </si>
@@ -37,18 +36,6 @@
   </si>
   <si>
     <t>实际换届时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否现任班子（每个党委现任班子只有一个，多余的将覆盖）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,11 +474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -499,74 +486,64 @@
     <col min="1" max="1" width="42.5" customWidth="1"/>
     <col min="2" max="2" width="33.25" customWidth="1"/>
     <col min="3" max="3" width="23.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="3" customWidth="1"/>
-    <col min="5" max="7" width="14" customWidth="1"/>
+    <col min="4" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="D2" s="6">
+        <v>42509</v>
       </c>
       <c r="E2" s="6">
-        <v>42509</v>
-      </c>
-      <c r="F2" s="6">
         <v>43970</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="D3" s="6">
+        <v>40317</v>
       </c>
       <c r="E3" s="6">
-        <v>40317</v>
+        <v>42143</v>
       </c>
       <c r="F3" s="6">
-        <v>42143</v>
-      </c>
-      <c r="G3" s="6">
         <v>42144</v>
       </c>
     </row>

--- a/doc/excel/党建/[sample_partyMemberGroup]基层党组织领导班子录入样表.xlsx
+++ b/doc/excel/党建/[sample_partyMemberGroup]基层党组织领导班子录入样表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\党建\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\骥贤-功能开发文件\20201127之后功能开发文件\相关导入样表修改\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D8480F-4EA3-4ECC-96F3-DCD2FCBD5F28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>应换届时间</t>
   </si>
   <si>
     <t>任命时间</t>
-  </si>
-  <si>
-    <t>020100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>班子名称</t>
@@ -40,14 +37,6 @@
   </si>
   <si>
     <t>中共xxx大学教育学部委员会xxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中共xxx大学教育学部委员会2222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属分党委编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,23 +125,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -474,78 +454,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" customWidth="1"/>
     <col min="2" max="2" width="33.25" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="3" customWidth="1"/>
-    <col min="4" max="6" width="14" customWidth="1"/>
+    <col min="3" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
         <v>42509</v>
       </c>
-      <c r="E2" s="6">
+      <c r="D2" s="3">
         <v>43970</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>40317</v>
-      </c>
-      <c r="E3" s="6">
-        <v>42143</v>
-      </c>
-      <c r="F3" s="6">
-        <v>42144</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
